--- a/data/trans_camb/P1419-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1419-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.4364479215737672</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6474035349624908</v>
+        <v>0.6474035349624901</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-4.797674935208052</v>
@@ -655,7 +655,7 @@
         <v>-4.203775873827966</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.6383532043826898</v>
+        <v>-0.6383532043826912</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.373017054327363</v>
@@ -664,7 +664,7 @@
         <v>-1.844311683428543</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4366911771941151</v>
+        <v>0.4366911771941144</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.398895422515529</v>
+        <v>-4.419167940744409</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.731788671715804</v>
+        <v>-2.65933174347675</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.564133558955985</v>
+        <v>-1.357428902429196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.840482561891696</v>
+        <v>-8.404933341034976</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.180435763905301</v>
+        <v>-8.328448492916865</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.88409060392055</v>
+        <v>-4.814610456327808</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.231547551326999</v>
+        <v>-5.31429994214627</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.975289034682107</v>
+        <v>-3.89064768293842</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.567714752274357</v>
+        <v>-1.676705777947853</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.020747185367547</v>
+        <v>-1.278107720798935</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.879844008380458</v>
+        <v>1.555302854466558</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.005341464127813</v>
+        <v>2.955576937612837</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.57315239914256</v>
+        <v>-1.416442998390712</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.4259458615862979</v>
+        <v>-0.4670759576022125</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.657087033892045</v>
+        <v>2.786905421614003</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.619166226306471</v>
+        <v>-1.738208319424427</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3435972227524492</v>
+        <v>0.007237519235188413</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.460276829138899</v>
+        <v>2.523205141928041</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1552611278233135</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2303060640834951</v>
+        <v>0.2303060640834949</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.6060634937054329</v>
@@ -760,7 +760,7 @@
         <v>-0.5310395404552982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.08063959699042303</v>
+        <v>-0.08063959699042321</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.7002183524411911</v>
@@ -769,7 +769,7 @@
         <v>-0.3828681763412861</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.09065450061338191</v>
+        <v>0.09065450061338177</v>
       </c>
     </row>
     <row r="8">
@@ -783,28 +783,28 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7104701376738194</v>
+        <v>-0.6857107964637543</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4010204224224138</v>
+        <v>-0.3919202931177645</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8295726992881581</v>
+        <v>-0.8170635984815305</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8079890606247292</v>
+        <v>-0.7865311295781713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.449918905848348</v>
+        <v>-0.4349338277430591</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8644201111641698</v>
+        <v>-0.8635623083890467</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6592042292259246</v>
+        <v>-0.6766852915457727</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2571071713613722</v>
+        <v>-0.2741904912888496</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3661199470227244</v>
+        <v>-0.06727264950422462</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.152844368133903</v>
+        <v>1.068439529510463</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.814317671539265</v>
+        <v>1.798651976067713</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2173223632253565</v>
+        <v>-0.195314378749124</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.02948466645434181</v>
+        <v>0.03286862147195661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4928279559591182</v>
+        <v>0.5409142724222723</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.4260756959623144</v>
+        <v>-0.4085592308915355</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1518603855985103</v>
+        <v>0.0604653858255315</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7316468195329802</v>
+        <v>0.7027551068048093</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.491641992654623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7659383733282548</v>
+        <v>0.7659383733282541</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.195601832671033</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.637358872080972</v>
+        <v>-3.437846808702272</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.457010301379552</v>
+        <v>-3.654399455896584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.472419822907175</v>
+        <v>-1.802532659153336</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.019113592083559</v>
+        <v>-4.446049356194188</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.425334574831338</v>
+        <v>-7.059784598961338</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.739939028593948</v>
+        <v>-1.349743374839055</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.610204163391892</v>
+        <v>-3.355714166824137</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.775002068041148</v>
+        <v>-4.806808125027338</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.044265060696555</v>
+        <v>-0.8728783808680103</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.201573888931782</v>
+        <v>0.2188199859274987</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1576538963028536</v>
+        <v>0.2059580092151308</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.760848935907922</v>
+        <v>2.602761733417213</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.360180436615105</v>
+        <v>2.541953881023407</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.9851190837042609</v>
+        <v>-0.9249343489765733</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.101376312133856</v>
+        <v>5.116141332234634</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3985667195784199</v>
+        <v>0.6003757294462198</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.050517371966527</v>
+        <v>-1.107094402518581</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.069025428714766</v>
+        <v>3.083716837558481</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.6187622009464547</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3177261809494213</v>
+        <v>0.3177261809494211</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1833739010425559</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.9140517664864279</v>
+        <v>-0.9141466117051485</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.941576913133395</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4049630263365661</v>
+        <v>-0.4805460012436105</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5946372027105482</v>
+        <v>-0.5465788793122485</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8549986385134941</v>
+        <v>-0.82738948076722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2052129078650962</v>
+        <v>-0.1638131693666559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6230388721492922</v>
+        <v>-0.6234946837140491</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8252231628943678</v>
+        <v>-0.8313340554711334</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1796409737860454</v>
+        <v>-0.1742740150700806</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4916135728737238</v>
+        <v>0.4609096295387127</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.578576394749544</v>
+        <v>0.69711317348932</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.309332943294363</v>
+        <v>1.934359688586879</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5091722164381458</v>
+        <v>0.5498223836151669</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.07313067209451014</v>
+        <v>-0.1351055189607268</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.091686697388069</v>
+        <v>1.080450925720118</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1497831281168665</v>
+        <v>0.2288248596794061</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2404704252300906</v>
+        <v>-0.2717137930314386</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9324964442294703</v>
+        <v>0.9170959868421611</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.473008267450252</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.1682625649749</v>
+        <v>2.168262564974899</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-3.813374632626874</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.248488194036995</v>
+        <v>-4.304066369181836</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.680656380293034</v>
+        <v>-3.472563187241804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5387284333344026</v>
+        <v>-0.2656867024752376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.22118095008994</v>
+        <v>-10.08706809062769</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.786178814413759</v>
+        <v>-8.47484510006827</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.2943133140324139</v>
+        <v>0.1500881443729755</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.662541256733271</v>
+        <v>-4.62398879432212</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.866668595756785</v>
+        <v>-3.731774873357191</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.17706104425225</v>
+        <v>1.398034104926662</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.7694432306207314</v>
+        <v>-0.468507458658198</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6295308890696465</v>
+        <v>0.8041249335244921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.178005842552995</v>
+        <v>5.161001774076436</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.246707713883144</v>
+        <v>2.78433899349163</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.097298421413879</v>
+        <v>5.782496522617734</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.87451172873286</v>
+        <v>13.79062359835228</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.4488990906392628</v>
+        <v>-0.133555798193694</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.957028327755983</v>
+        <v>0.9017007268295778</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.514693160565753</v>
+        <v>6.831331517333424</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3972097125893541</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.584691185571382</v>
+        <v>0.5846911855713818</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3221836106403096</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8684904754599052</v>
+        <v>-0.8451844760859647</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7498183373007359</v>
+        <v>-0.7244884643523616</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1403540744347432</v>
+        <v>-0.07933768348420332</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.630206230357644</v>
+        <v>-0.6302005951954357</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5663955725044421</v>
+        <v>-0.5522309992771288</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03265190465731778</v>
+        <v>0.004929083146108965</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6462280091030714</v>
+        <v>-0.6504522830482689</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5512450674820948</v>
+        <v>-0.5490496772424802</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1392308537634417</v>
+        <v>0.1843570623637096</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1572478303226522</v>
+        <v>-0.1297551174835057</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2896971709781866</v>
+        <v>0.4001664044859542</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.988263516016197</v>
+        <v>2.115591572315374</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.381021675784647</v>
+        <v>0.4125448663921325</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7638611621200755</v>
+        <v>0.715885048627798</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.666161806744513</v>
+        <v>1.846844530382366</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.07284906889287625</v>
+        <v>0.01212904680634195</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2299609794818448</v>
+        <v>0.2220496508829142</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.395118962669899</v>
+        <v>1.466624753790049</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-5.861243715278933</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.3527109892274463</v>
+        <v>-0.3527109892274491</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-2.08906726177108</v>
@@ -1306,7 +1306,7 @@
         <v>-3.033040402433214</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.608054118171537</v>
+        <v>1.608054118171536</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.40081958580813</v>
+        <v>-2.319482639597841</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.88750652625249</v>
+        <v>-2.821969926249691</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6129730325513086</v>
+        <v>0.6100323873832536</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.406870039626523</v>
+        <v>-7.306229211694248</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.490638293289066</v>
+        <v>-8.813630619693194</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.31186601592447</v>
+        <v>-3.36968339289735</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.54185347612521</v>
+        <v>-3.502315373023903</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.473365715710934</v>
+        <v>-4.361089348813986</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.005264539908988087</v>
+        <v>0.1152230547604581</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3653233355720654</v>
+        <v>0.375655754119752</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5909966432733562</v>
+        <v>-0.6701774637049238</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.821506792246125</v>
+        <v>3.850512959078185</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.559980067415219</v>
+        <v>-1.700706976679194</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.065355170001992</v>
+        <v>-3.177189670036424</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.177986861824519</v>
+        <v>2.406779085687043</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.7758296928487909</v>
+        <v>-0.776410338428707</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.754229024856219</v>
+        <v>-1.704065648751608</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.939293229244585</v>
+        <v>3.095375148745442</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.5494818476302492</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.03306606847536059</v>
+        <v>-0.03306606847536085</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3613953236392804</v>
@@ -1411,7 +1411,7 @@
         <v>-0.524696661475172</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2781831150680116</v>
+        <v>0.2781831150680114</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.666534983769839</v>
+        <v>-0.6457393102740833</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7733485568213611</v>
+        <v>-0.7744037729820014</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1494629327418314</v>
+        <v>0.1567678971249122</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5950302522538613</v>
+        <v>-0.5974913668924742</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6945389589944135</v>
+        <v>-0.7007105417411037</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2642667467676971</v>
+        <v>-0.258901316739599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5383003694940298</v>
+        <v>-0.5273171172164807</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6717040172577523</v>
+        <v>-0.661889062754786</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0001180411399303725</v>
+        <v>0.01840016091967887</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1761635425047401</v>
+        <v>0.1801130593578076</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1987682328171781</v>
+        <v>-0.2482931430259713</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.710653906237119</v>
+        <v>1.679773240637799</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1696027296111755</v>
+        <v>-0.1664520746542617</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3279567228985069</v>
+        <v>-0.3359796620561894</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2444590636681644</v>
+        <v>0.2582197390293621</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1449876088176569</v>
+        <v>-0.1302253668304064</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3335665321564267</v>
+        <v>-0.3303243646255957</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5785610121135805</v>
+        <v>0.6386586891701677</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.81686291064447</v>
+        <v>-7.415569397423839</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.30487257521121</v>
+        <v>-6.526835131986304</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.892363467985524</v>
+        <v>-5.620776390584258</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.446541188346049</v>
+        <v>-2.983067490023578</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.563453658333333</v>
+        <v>-5.058627463524934</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.048248492854818</v>
+        <v>2.034473372599037</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.109234122809055</v>
+        <v>-4.083823825357988</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.907829743630481</v>
+        <v>-5.23263842664154</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.6275220086699551</v>
+        <v>-0.3585277138516824</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.168227461729189</v>
+        <v>-2.168687758591519</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9586071134369961</v>
+        <v>-1.024539531159248</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.3597565706512287</v>
+        <v>-0.1549919555770547</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.672876198987526</v>
+        <v>3.584222631964008</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.379851927142903</v>
+        <v>1.425407186766074</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.130806497370704</v>
+        <v>8.584315628284788</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3456609600488705</v>
+        <v>0.5892463473987808</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.3973041972996814</v>
+        <v>-0.8687879664744922</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.819648682745733</v>
+        <v>3.924956628171421</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9663691220786954</v>
+        <v>-0.9598511444977873</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8555154852937906</v>
+        <v>-0.8543521230817436</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7851664908904492</v>
+        <v>-0.7750820824313861</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2896081613389217</v>
+        <v>-0.2556068386494976</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4659419117778718</v>
+        <v>-0.4226896924763702</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1692625216285923</v>
+        <v>0.166356621410682</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4208544133976421</v>
+        <v>-0.4296340240911803</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.513699983948629</v>
+        <v>-0.5468661387608634</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.05708039543330873</v>
+        <v>-0.04180888105839285</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.5314153698226461</v>
+        <v>-0.577966520560496</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.215273290388402</v>
+        <v>-0.2826800498902229</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.08023483186027859</v>
+        <v>0.01181281907659194</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4500554033874063</v>
+        <v>0.441331783496603</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1590711047165701</v>
+        <v>0.1969780954338496</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.013283397294482</v>
+        <v>1.049570481380643</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06196734485647323</v>
+        <v>0.09265259814209258</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.05900626436941641</v>
+        <v>-0.1243351606852843</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5756744397291096</v>
+        <v>0.5572759917726731</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-5.994574201610706</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-4.011087057484905</v>
+        <v>-4.011087057484906</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.565364382649601</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.042315734592348</v>
+        <v>-2.170869498076345</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.49290108394459</v>
+        <v>-1.639844347871905</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.074305486615241</v>
+        <v>-2.011188775122239</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.431042200800759</v>
+        <v>-4.589883126026987</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.655811567205204</v>
+        <v>-8.50031804691341</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.380529334241619</v>
+        <v>-6.445285228343131</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.816198364070534</v>
+        <v>-3.893587646813687</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.086709640417724</v>
+        <v>-7.135573232524522</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.571993093085239</v>
+        <v>-5.64674746034389</v>
       </c>
     </row>
     <row r="36">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.725901105114298</v>
+        <v>0.7196624468729674</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.2911233740080651</v>
+        <v>0.2394506137908726</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.043612112894107</v>
+        <v>0.807354520397305</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-3.306038489445853</v>
+        <v>-3.715470363657951</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.569747841495485</v>
+        <v>-1.292531166937292</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.4975374383002369</v>
+        <v>0.6450590671782525</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.890909323370239</v>
+        <v>-3.136007201302355</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.428494191482029</v>
+        <v>-1.495417478383715</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.4593437654077782</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3073559139310448</v>
+        <v>-0.3073559139310449</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.1467954204851926</v>
@@ -1853,22 +1853,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.3024918446798953</v>
+        <v>-0.3162561890412335</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6052600464362577</v>
+        <v>-0.587353781925794</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4445691195209148</v>
+        <v>-0.448021486739023</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3273395303243625</v>
+        <v>-0.3276258899500472</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6098414294500036</v>
+        <v>-0.6077008228320512</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4725923606581076</v>
+        <v>-0.4719864233994108</v>
       </c>
     </row>
     <row r="39">
@@ -1882,22 +1882,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.08618524493099604</v>
+        <v>0.07380671849791492</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.2844579137319733</v>
+        <v>-0.3065828252731325</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.129408884232326</v>
+        <v>-0.1038111262419262</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04961724109759963</v>
+        <v>0.07076437207487062</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.2915378413272345</v>
+        <v>-0.3199665644624062</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1493356749340329</v>
+        <v>-0.1554929908022856</v>
       </c>
     </row>
     <row r="40">
@@ -1918,7 +1918,7 @@
         <v>-1.483810422670397</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.8820764747572377</v>
+        <v>0.8820764747572364</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-2.336045316199571</v>
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.612586389665298</v>
+        <v>-2.478791062189306</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.229271361258556</v>
+        <v>-2.203362618219333</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.005302918656144825</v>
+        <v>0.1034693146509684</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.732558044370904</v>
+        <v>-3.823369674537118</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.157108351856854</v>
+        <v>-6.098940858268661</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.17562784129011</v>
+        <v>-1.239716642008799</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.874990764419431</v>
+        <v>-2.936091252253571</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.899585711196796</v>
+        <v>-3.880125617919966</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.2281607021009823</v>
+        <v>-0.3393088071268817</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-1.167082821860869</v>
+        <v>-1.092726507697995</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.7204002084571378</v>
+        <v>-0.7666847698233477</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.752364352959581</v>
+        <v>1.735294210577571</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.7824083389891356</v>
+        <v>-0.8555814239401524</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-3.322651851943587</v>
+        <v>-3.217730756617095</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.50049635590181</v>
+        <v>1.514063602846845</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-1.240636847132779</v>
+        <v>-1.254722152925857</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-2.277018570673737</v>
+        <v>-2.273455267953745</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.463943770223926</v>
+        <v>1.421097574943621</v>
       </c>
     </row>
     <row r="43">
@@ -2023,7 +2023,7 @@
         <v>-0.4897468091513582</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2911383639982665</v>
+        <v>0.2911383639982661</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.2165971837207794</v>
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7384996137793556</v>
+        <v>-0.7241189542457366</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6354383319842994</v>
+        <v>-0.6362429211602991</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.0008119371159012766</v>
+        <v>0.01828901419739087</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.322590969776716</v>
+        <v>-0.3287708913451072</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5334666352050466</v>
+        <v>-0.5241010243224783</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1002261090948978</v>
+        <v>-0.1052929758010438</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.391205790065247</v>
+        <v>-0.389965308869554</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5245257264126346</v>
+        <v>-0.5250246426309201</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.03038901325966007</v>
+        <v>-0.04530657793130281</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.4227627405998638</v>
+        <v>-0.4108086552379639</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2686787842650108</v>
+        <v>-0.282295019992184</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6657007426621732</v>
+        <v>0.6578910035187258</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.07237699806829313</v>
+        <v>-0.08511346805691131</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.3360113345724194</v>
+        <v>-0.3195010231746446</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1537910296381655</v>
+        <v>0.1526647244204994</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.1935255664661843</v>
+        <v>-0.1866629589564735</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.347274080403454</v>
+        <v>-0.3485551896743717</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2280777411454364</v>
+        <v>0.2161948221033262</v>
       </c>
     </row>
     <row r="46">
